--- a/프로젝트/데이터_컬럼설명.xlsx
+++ b/프로젝트/데이터_컬럼설명.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Star1/Desktop/sql폴더/SQL_Practice/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD053B2-6350-1C45-BD7F-1F753D496FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FEE2BF-86B9-0042-A60B-2085F294040C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="740" windowWidth="17900" windowHeight="16980" xr2:uid="{0DC869E8-5B74-C544-AFE5-5FF14845FD70}"/>
+    <workbookView xWindow="13520" yWindow="1300" windowWidth="14700" windowHeight="16980" xr2:uid="{0DC869E8-5B74-C544-AFE5-5FF14845FD70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="127">
   <si>
     <t>테이블</t>
   </si>
@@ -158,287 +158,318 @@
     <t>order approved at</t>
   </si>
   <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>product category name</t>
+  </si>
+  <si>
+    <t>product _name_lenght</t>
+  </si>
+  <si>
+    <t>product_description_lenght</t>
+  </si>
+  <si>
+    <t>product_photos_aty</t>
+  </si>
+  <si>
+    <t>product weight g</t>
+  </si>
+  <si>
+    <t>product _length_cm</t>
+  </si>
+  <si>
+    <t>product height cm</t>
+  </si>
+  <si>
+    <t>product_width_cm</t>
+  </si>
+  <si>
+    <t>seller_zip_code_prefix</t>
+  </si>
+  <si>
+    <t>seller city</t>
+  </si>
+  <si>
+    <t>seller state</t>
+  </si>
+  <si>
+    <t>product_category_name</t>
+  </si>
+  <si>
+    <t>product_category_name_english</t>
+  </si>
+  <si>
+    <t>(고객 거주)도시 이름</t>
+  </si>
+  <si>
+    <t>고객 고유 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 고유 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 항목 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~9까지 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 선적일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest shipping date): 선적이 허용되는 최종일.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5월 선적이면 신용장에는 'not later than May 31')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운임 비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제유형</t>
+  </si>
+  <si>
+    <t>결제금액</t>
+  </si>
+  <si>
+    <t>리뷰ID</t>
+  </si>
+  <si>
+    <t>리뷰 점수</t>
+  </si>
+  <si>
+    <t>리뷰 제목</t>
+  </si>
+  <si>
+    <t>리뷰 댓글</t>
+  </si>
+  <si>
+    <t>주문상태</t>
+  </si>
+  <si>
+    <t>제품 ID</t>
+  </si>
+  <si>
+    <t>제품 이름 길이</t>
+  </si>
+  <si>
+    <t>제품 설명 길이</t>
+  </si>
+  <si>
+    <t>제품 사진 수</t>
+  </si>
+  <si>
+    <t>제품 무게(g)</t>
+  </si>
+  <si>
+    <t>제품 길이(cm)</t>
+  </si>
+  <si>
+    <t>제품 높이(cm)</t>
+  </si>
+  <si>
+    <t>제품 너비(cm)</t>
+  </si>
+  <si>
+    <t>고객 우편번호 앞자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우편번호 앞자리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 우편번호 앞자리</t>
+  </si>
+  <si>
+    <t>제품 카테고리(포르투칼어)</t>
+  </si>
+  <si>
+    <t>제품 카테고리(영어)</t>
+  </si>
+  <si>
+    <t>할부 개월 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null값 많음:58247개(유효값은 2148개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null값 많음:87656개(유효값은 11568개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 응답받은(작성한) 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 리뷰 생성 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unavailable-&gt; shipped -&gt; processing-&gt; invoiced -&gt; delivered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분 delivered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 접수 시간(전상상 표기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 승인 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송시작 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 배송 도착 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 예상한 배송 도착 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전반적으로 실제 도착시간보다 매우 뒤로 잡음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 74개의 그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자 거주 도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 71개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 카테고리 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주(state) 약칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시들을 포함하는 주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드, 티켓, 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인위적으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length의 오타 예상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수들로 나타남(데이터상 타입은 float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null값 600개(전체는 3만 2천개정도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1고객 거주지별 구매 품목과 해당 지역 산업구조와의 관련성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2사진개수, 설명길이와 판매량 간의 관계가 있는지(영향 미치는지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3지역간 수요-공급 불균형이 발생하는 품목 등 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4소비가 많은 날짜(부활절, 크리스마스 등)에 발생하는 소비 패턴 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5배송기간 등의 요소에서 문제가 있는 seller 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order status 값들 확인해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6지역별 배송기간의 격차를 분석함으로써 최적의 물류창고 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order delivered carrier date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>order delivered customer date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>order_estimated_ delivery_ date</t>
-  </si>
-  <si>
-    <t>product id</t>
-  </si>
-  <si>
-    <t>product category name</t>
-  </si>
-  <si>
-    <t>product _name_lenght</t>
-  </si>
-  <si>
-    <t>product_description_lenght</t>
-  </si>
-  <si>
-    <t>product_photos_aty</t>
-  </si>
-  <si>
-    <t>product weight g</t>
-  </si>
-  <si>
-    <t>product _length_cm</t>
-  </si>
-  <si>
-    <t>product height cm</t>
-  </si>
-  <si>
-    <t>product_width_cm</t>
-  </si>
-  <si>
-    <t>seller_zip_code_prefix</t>
-  </si>
-  <si>
-    <t>seller city</t>
-  </si>
-  <si>
-    <t>seller state</t>
-  </si>
-  <si>
-    <t>product_category_name</t>
-  </si>
-  <si>
-    <t>product_category_name_english</t>
-  </si>
-  <si>
-    <t>(고객 거주)도시 이름</t>
-  </si>
-  <si>
-    <t>고객 고유 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 고유 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 항목 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~9까지 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 선적일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latest shipping date): 선적이 허용되는 최종일.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5월 선적이면 신용장에는 'not later than May 31')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운임 비용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제유형</t>
-  </si>
-  <si>
-    <t>결제금액</t>
-  </si>
-  <si>
-    <t>리뷰ID</t>
-  </si>
-  <si>
-    <t>리뷰 점수</t>
-  </si>
-  <si>
-    <t>리뷰 제목</t>
-  </si>
-  <si>
-    <t>리뷰 댓글</t>
-  </si>
-  <si>
-    <t>주문상태</t>
-  </si>
-  <si>
-    <t>제품 ID</t>
-  </si>
-  <si>
-    <t>제품 이름 길이</t>
-  </si>
-  <si>
-    <t>제품 설명 길이</t>
-  </si>
-  <si>
-    <t>제품 사진 수</t>
-  </si>
-  <si>
-    <t>제품 무게(g)</t>
-  </si>
-  <si>
-    <t>제품 길이(cm)</t>
-  </si>
-  <si>
-    <t>제품 높이(cm)</t>
-  </si>
-  <si>
-    <t>제품 너비(cm)</t>
-  </si>
-  <si>
-    <t>고객 우편번호 앞자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우편번호 앞자리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 우편번호 앞자리</t>
-  </si>
-  <si>
-    <t>제품 카테고리(포르투칼어)</t>
-  </si>
-  <si>
-    <t>제품 카테고리(영어)</t>
-  </si>
-  <si>
-    <t>할부 개월 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null값 많음:58247개(유효값은 2148개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null값 많음:87656개(유효값은 11568개)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 응답받은(작성한) 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성된 리뷰 생성 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unavailable-&gt; shipped -&gt; processing-&gt; invoiced -&gt; delivered</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대부분 delivered</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 접수 시간(전상상 표기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 승인 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송시작 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실제 배송 도착 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 예상한 배송 도착 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전반적으로 실제 도착시간보다 매우 뒤로 잡음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 74개의 그룹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매자 거주 도시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 71개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 카테고리 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주(state) 약칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시들을 포함하는 주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신용카드, 티켓, 등등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인위적으로 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>length의 오타 예상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수들로 나타남(데이터상 타입은 float)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null값 600개(전체는 3만 2천개정도)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +494,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +543,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C45E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -527,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,12 +589,20 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C45E0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -866,14 +911,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF20930-C4C0-5246-8C63-8D5D5409D2CC}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
@@ -892,7 +938,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -900,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -908,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -917,7 +963,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -926,10 +972,10 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -940,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -948,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -956,7 +1002,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -965,7 +1011,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -974,7 +1020,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -986,7 +1032,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -994,19 +1040,19 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>111</v>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1015,7 +1061,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1023,13 +1069,13 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1037,7 +1083,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1045,7 +1091,7 @@
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1057,7 +1103,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1065,10 +1111,10 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1076,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1087,7 +1133,7 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1095,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1106,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1115,7 +1161,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1123,7 +1169,7 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1131,10 +1177,10 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1142,10 +1188,10 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1153,10 +1199,10 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1164,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1176,7 +1222,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1185,7 +1231,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1193,13 +1239,13 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1207,7 +1253,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1215,40 +1261,40 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="C37" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="C38" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1256,88 +1302,88 @@
         <v>7</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="C41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="C42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="C43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="C44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="C45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="C46" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="C47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1349,33 +1395,33 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1383,25 +1429,58 @@
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
